--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="188">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsdfsdfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skdjfksjf skjf hskjfh kjsdh fkjs hkjh fdjksh fkjsdh fkjs dfkjs dfkj sjkd fsjk fkjs fkjs fkjs fjks fjks hfkjs fjks hfjks hfjks hfjks hfjk sfjks fjks hfjks hjkf hsjkfs jk</t>
+    <t xml:space="preserve">Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos perfectamente definidos y convertidos en incidencias (Issues) de Github.</t>
   </si>
   <si>
     <t xml:space="preserve">Mínimo</t>
@@ -70,67 +70,555 @@
     <t xml:space="preserve">R02</t>
   </si>
   <si>
-    <t xml:space="preserve">kdldjflgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdlksdljkfsldjfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante</t>
+    <t xml:space="preserve">Código fuente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código fuente publicado en Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo del código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo del código según las normas internas de Yii2 para el código y para las plantillas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres lanzamientos (releases) etiquetados en el repositorio como v1, v2 y v3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README.md en el directorio raíz con la descripción principal del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación generada con yii2-apidoc y publicada en Github Pages a partir del contenido del directorio /docs:
+a. Contenido:
+   i. Guía general
+   ii. API
+b. Formato: Github flavored Markdown (fuente) y HTML (resultado).
+c. Usar script publicar_doc.sh contenido en la raíz del proyecto.
+d. Opciona: conversión a PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración y resolución de todas las incidencias notificadas en Github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiquetas e hitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar etiquetas e hitos:
+a. Etiquetas: mínimo, importante, opcional (además de las ya existentes).
+b. Hitos: v1, v2, v3 (con fechas de entrega aproximadas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rama mastr debe reflejar en todo momento el estado más estable de la aplicación, de manera que:
+a. La rama master no debe contener bugs conocidos.
+b. El desarrollo deberá hacerse en otras ramas creadas a tal efecto (una distinta por cada funcionalidad) y se irán combinando con la master una vez que se haya implementado la funcionalidad correspondiente.
+c. Cada rama debe ir asociada con una incidencia. El nombre de la rama debe empezar por el número de la incidencia correspondiente (p. ej. 17-login).
+d. La release actual en Heroku corresponderá siempre con el último commit de la rama master (usar los deploys automáticos de Heroku conectando la aplicación de Heroku con la rama master de Github).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Waffle para la gestión general del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al final de cada iteración:
+a. Se realiza el lanzamiento que toque (v1, v2 o v3), etiquetando el commit correspondiente con el hito adecuado.
+b. Se actualiza y publica la documentación.
+c. Al final del Proyecto, se tiene que cumplir lo siguiente:
+   i. Todas las incidencias cerradas con su debida justificación.
+   ii. En el backlog sólo pueden quedar tarjetas con prioridad opcional.
+   iii. El lanzamiento v3 desplegado en la nube.
+   iv. La documentación correctamente actualizada y publicada.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de formularios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de los campos de los formularios usando JavaScript.</t>
   </si>
   <si>
     <t xml:space="preserve">v2</t>
   </si>
   <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkcvlkjxcjklcxljkwejlksdfvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfsfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk34jlk4n,lkjlksdflksdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcvxcv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdkfjklsdfjldksf
-- sdlkfjlksdjfldksjflksjfdss
-- slkdjflksjflksjflksjkljfksldjfldks
-sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
-klsdjfkljsdlkfjskldf
-sdklfjklsdjfklsdjflksdjfklsdjkl
-lñklllllllllllllllllllllllqweqweqweqew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de la apariencia de las ventanas. Creación de nuevas ventanas y comunicación entre ventanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactividad a través de mecanismo de manejo de eventos intuitivos y eficaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso del DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento (DOM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de la librería Jquery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilización de mecanismos de comunicación asíncrona: AJAX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PHP 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yii2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Yii2 Framework versión 2.0.10 o superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PostgreSQL versión 9.6 o superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue de la apliación en la plataforma Heroku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas funcionales con Codeception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenibilidad del código fuente validados por Code Climate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación ha de ser escalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para estructurar el contenido se utilizarán las etiquetas semánticas de HTML5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo relacionado con la presentación se trabajará mediante CSS3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño será flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existirán transiciones, transformaciones, animaciones y contenido multimedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microdatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de microdatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superar pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá comprobar que el código supera:
+a. Validador para HTML5, CSS3.
+b. Nivel de accesibilidad AA.
+c. Prueba del seis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar que el diseño es correcto en: Internet Explorer, Chrome, Mozilla Firefox, Opera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar el despliegue en un Host: 
+a. Utilizando algún servicio gratuito de hosting como los vistos en clase.
+b. Instalar / configurar o solicitar el software necesario para desplegar el proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un despliegue en un servidor local usando y configurando tres máquinas virtuales para:
+a. Crear un servicio de Nombres de dominio.
+b. Gestionar y administrar el servidor Apache tanto en Windows como en Linux.
+   i. Instalar el servidor y configurarlo.
+   ii. Configurar directivas.
+   iii. Usar directorios virtuales y redireccionamientos.
+   iv. Usar diferentes módulos estáticos y dinámicos.
+   v. Usar autenticaciones.
+   vi. Usar ficheros de configuración personalizada de directorios.
+   vii. Usar HTTPS y certificados Digitales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v59</t>
   </si>
 </sst>
 </file>
@@ -228,10 +716,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,8 +727,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -268,57 +756,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -334,18 +822,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -354,101 +842,1357 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="9" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="203.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D69" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E69" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F69" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G69" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="243">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -749,370 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">Se investigará el uso de Amazon S3 para usarla para subir archivos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitos mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incidencias en Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitos perfectamente definidos y convertidos en incidencias (Issues) de Github.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código fuente en Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código fuente publicado en Github.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estilo del código según Yii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estilo del código según las normas internas de Yii2 para el código y para las plantillas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres lanzamientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres lanzamientos (releases) etiquetados en el repositorio como v1, v2 y v3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">README en el directorio raíz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">README.md en el directorio raíz con la descripción principal del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentación en Github Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentación generada con yii2-apidoc y publicada en Github Pages a partir del contenido del directorio /docs:
-a. Contenido:
-   i. Guía general
-   ii. API
-b. Formato: Github flavored Markdown (fuente) y HTML (resultado).
-c. Usar script publicar_doc.sh contenido en la raíz del proyecto.
-d. Opciona: conversión a PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solucionar todas las incidencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administración y resolución de todas las incidencias notificadas en Github.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar etiquetas e hitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar etiquetas e hitos:
-a. Etiquetas: mínimo, importante, opcional (además de las ya existentes).
-b. Hitos: v1, v2, v3 (con fechas de entrega aproximadas).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versión más estable en la rama master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La rama master debe reflejar en todo momento el estado más estable de la aplicación, de manera que:
-a. La rama master no debe contener bugs conocidos.
-b. El desarrollo deberá hacerse en otras ramas creadas a tal efecto (una distinta por cada funcionalidad) y se irán combinando con la master una vez que se haya implementado la funcionalidad correspondiente.
-c. Cada rama debe ir asociada con una incidencia. El nombre de la rama debe empezar por el número de la incidencia correspondiente (p. ej. 17-login).
-d. La release actual en Heroku corresponderá siempre con el último commit de la rama master (usar los deploys automáticos de Heroku conectando la aplicación de Heroku con la rama master de Github).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar Waffle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar Waffle para la gestión general del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteraciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al final de cada iteración:
-a. Se realiza el lanzamiento que toque (v1, v2 o v3), etiquetando el commit correspondiente con el hito adecuado.
-b. Se actualiza y publica la documentación.
-c. Al final del Proyecto, se tiene que cumplir lo siguiente:
-   i. Todas las incidencias cerradas con su debida justificación.
-   ii. En el backlog sólo pueden quedar tarjetas con prioridad opcional.
-   iii. El lanzamiento v3 desplegado en la nube.
-   iv. La documentación correctamente actualizada y publicada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación de formularios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación de los campos de los formularios usando JavaScript.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de ventanas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de la apariencia de las ventanas. Creación de nuevas ventanas y comunicación entre ventanas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejo de eventos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactividad a través de mecanismo de manejo de eventos intuitivos y eficaces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso del DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento (DOM).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de mecanismos de almacenamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de la librería Jquery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de AJAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilización de mecanismos de comunicación asíncrona: AJAX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar PHP 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yii2 Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar Yii2 Framework versión 2.0.10 o superior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostgreSQL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar PostgreSQL versión 9.6 o superior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despliegue de la apliación en la plataforma Heroku.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Codeception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas funcionales con Codeception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Code Climate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estilo y mantenibilidad del código fuente validados por Code Climate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escalabilidad de la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación ha de ser escalable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estructura en HTML5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para estructurar el contenido se utilizarán las etiquetas semánticas de HTML5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentación con CSS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo lo relacionado con la presentación se trabajará mediante CSS3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño flexible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El diseño será flexible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir Animaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existirán transiciones, transformaciones, animaciones y contenido multimedia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir Microdatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de microdatos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superar pruebas de HTML5 y CSS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se deberá comprobar que el código supera:
-a. Validador para HTML5, CSS3.
-b. Nivel de accesibilidad AA.
-c. Prueba del seis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño apto para diferentes resoluciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño apto para diferentes navegadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobar que el diseño es correcto en: Internet Explorer, Chrome, Mozilla Firefox, Opera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despliegue en Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar el despliegue en un Host: 
-a. Utilizando algún servicio gratuito de hosting como los vistos en clase.
-b. Instalar / configurar o solicitar el software necesario para desplegar el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despliegue en local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar un despliegue en un servidor local usando y configurando tres máquinas virtuales para:
-a. Crear un servicio de Nombres de dominio.
-b. Gestionar y administrar el servidor Apache tanto en Windows como en Linux.
-   i. Instalar el servidor y configurarlo.
-   ii. Configurar directivas.
-   iii. Usar directorios virtuales y redireccionamientos.
-   iv. Usar diferentes módulos estáticos y dinámicos.
-   v. Usar autenticaciones.
-   vi. Usar ficheros de configuración personalizada de directorios.
-   vii. Usar HTTPS y certificados Digitales.
-</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1152,12 +788,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1202,7 +832,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1243,14 +873,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1268,10 +890,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1311,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1380,14 +1002,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1495,14 +1117,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1518,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1541,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1610,14 +1232,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1633,14 +1255,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1679,7 +1301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1702,7 +1324,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -1725,7 +1347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -1748,7 +1370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1771,14 +1393,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1794,14 +1416,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -1817,14 +1439,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -1840,14 +1462,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -1863,14 +1485,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1886,14 +1508,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1909,14 +1531,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -1932,14 +1554,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1955,14 +1577,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -1978,7 +1600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -2031,7 +1653,7 @@
       <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -2054,7 +1676,7 @@
       <c r="B34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -2070,14 +1692,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -2100,7 +1722,7 @@
       <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -2123,7 +1745,7 @@
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -2139,14 +1761,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -2162,14 +1784,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2185,14 +1807,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -2208,14 +1830,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2231,14 +1853,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -2254,14 +1876,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -2277,14 +1899,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -2300,14 +1922,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -2323,14 +1945,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -2346,14 +1968,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -2369,14 +1991,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -2392,14 +2014,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -2422,7 +2044,7 @@
       <c r="B50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -2438,14 +2060,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -2461,14 +2083,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -2491,7 +2113,7 @@
       <c r="B53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -2514,7 +2136,7 @@
       <c r="B54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -2537,7 +2159,7 @@
       <c r="B55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -2553,14 +2175,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -2583,7 +2205,7 @@
       <c r="B57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -2606,7 +2228,7 @@
       <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -2629,7 +2251,7 @@
       <c r="B59" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -2645,14 +2267,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -2668,14 +2290,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -2691,14 +2313,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -2714,14 +2336,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -2737,14 +2359,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -2760,14 +2382,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -2783,14 +2405,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -2806,14 +2428,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -2829,14 +2451,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -2859,7 +2481,7 @@
       <c r="B69" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -2882,7 +2504,7 @@
       <c r="B70" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -2905,7 +2527,7 @@
       <c r="B71" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -2928,7 +2550,7 @@
       <c r="B72" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -2944,14 +2566,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -2974,7 +2596,7 @@
       <c r="B74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -2990,14 +2612,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -3013,14 +2635,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D76" s="9" t="s">
@@ -3036,863 +2658,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="77" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A77:G77"/>
-  </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D113" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D76" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E113" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E76" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F113" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F76" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G113" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G76" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="334">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,25 +49,401 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
+    <t xml:space="preserve">Incidencias en Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos perfectamente definidos y convertidos en incidencias (Issues) de Github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mínimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fácil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código fuente en Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código fuente publicado en Github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo del código según Yii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo del código según las normas internas de Yii2 para el código y para las plantillas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres lanzamientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres lanzamientos (releases) etiquetados en el repositorio como v1, v2 y v3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README en el directorio raíz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">README.md en el directorio raíz con la descripción principal del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación en Github Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación generada con yii2-apidoc y publicada en Github Pages a partir del contenido del directorio /docs:
+a. Contenido:
+   i. Guía general
+   ii. API
+b. Formato: Github flavored Markdown (fuente) y HTML (resultado).
+c. Usar script publicar_doc.sh contenido en la raíz del proyecto.
+d. Opciona: conversión a PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solucionar todas las incidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración y resolución de todas las incidencias notificadas en Github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar etiquetas e hitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar etiquetas e hitos:
+a. Etiquetas: mínimo, importante, opcional (además de las ya existentes).
+b. Hitos: v1, v2, v3 (con fechas de entrega aproximadas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versión más estable en la rama master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rama master debe reflejar en todo momento el estado más estable de la aplicación, de manera que:
+a. La rama master no debe contener bugs conocidos.
+b. El desarrollo deberá hacerse en otras ramas creadas a tal efecto (una distinta por cada funcionalidad) y se irán combinando con la master una vez que se haya implementado la funcionalidad correspondiente.
+c. Cada rama debe ir asociada con una incidencia. El nombre de la rama debe empezar por el número de la incidencia correspondiente (p. ej. 17-login).
+d. La release actual en Heroku corresponderá siempre con el último commit de la rama master (usar los deploys automáticos de Heroku conectando la aplicación de Heroku con la rama master de Github).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Waffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Waffle para la gestión general del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al final de cada iteración:
+a. Se realiza el lanzamiento que toque (v1, v2 o v3), etiquetando el commit correspondiente con el hito adecuado.
+b. Se actualiza y publica la documentación.
+c. Al final del Proyecto, se tiene que cumplir lo siguiente:
+   i. Todas las incidencias cerradas con su debida justificación.
+   ii. En el backlog sólo pueden quedar tarjetas con prioridad opcional.
+   iii. El lanzamiento v3 desplegado en la nube.
+   iv. La documentación correctamente actualizada y publicada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de formularios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de los campos de los formularios usando JavaScript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de la apariencia de las ventanas. Creación de nuevas ventanas y comunicación entre ventanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactividad a través de mecanismo de manejo de eventos intuitivos y eficaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso del DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento (DOM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de almacenamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de la librería Jquery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilización de mecanismos de comunicación asíncrona: AJAX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PHP 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yii2 Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Yii2 Framework versión 2.0.10 o superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar PostgreSQL versión 9.6 o superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue de la apliación en la plataforma Heroku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas funcionales con Codeception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Code Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenibilidad del código fuente validados por Code Climate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalabilidad de la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación ha de ser escalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estructura en HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para estructurar el contenido se utilizarán las etiquetas semánticas de HTML5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentación con CSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo relacionado con la presentación se trabajará mediante CSS3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño será flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir Animaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existirán transiciones, transformaciones, animaciones y contenido multimedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir Microdatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de microdatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superar pruebas de HTML5 y CSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá comprobar que el código supera:
+a. Validador para HTML5, CSS3.
+b. Nivel de accesibilidad AA.
+c. Prueba del seis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño apto para diferentes resoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño apto para diferentes navegadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar que el diseño es correcto en: Internet Explorer, Chrome, Mozilla Firefox, Opera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar el despliegue en un Host: 
+a. Utilizando algún servicio gratuito de hosting como los vistos en clase.
+b. Instalar / configurar o solicitar el software necesario para desplegar el proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un despliegue en un servidor local usando y configurando tres máquinas virtuales para:
+a. Crear un servicio de Nombres de dominio.
+b. Gestionar y administrar el servidor Apache tanto en Windows como en Linux.
+   i. Instalar el servidor y configurarlo.
+   ii. Configurar directivas.
+   iii. Usar directorios virtuales y redireccionamientos.
+   iv. Usar diferentes módulos estáticos y dinámicos.
+   v. Usar autenticaciones.
+   vi. Usar ficheros de configuración personalizada de directorios.
+   vii. Usar HTTPS y certificados Digitales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
     <t xml:space="preserve">Registro de usuario</t>
   </si>
   <si>
     <t xml:space="preserve">La aplicación permitirá el registro de usuarios, teniendo que facilitar un nombre de usuario único, una dirección de correo válida y única, y una contraseña.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mínimo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Funcional</t>
   </si>
   <si>
-    <t xml:space="preserve">Fácil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02</t>
+    <t xml:space="preserve">Requisitos funcionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">Correo de confirmación</t>
@@ -79,10 +455,7 @@
     <t xml:space="preserve">Importante</t>
   </si>
   <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
+    <t xml:space="preserve">R39</t>
   </si>
   <si>
     <t xml:space="preserve">Moderar usuarios</t>
@@ -91,10 +464,7 @@
     <t xml:space="preserve">La aplicación permitirá que un administrador borre, banee o modifique los usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
+    <t xml:space="preserve">R40</t>
   </si>
   <si>
     <t xml:space="preserve">Baja de usuario</t>
@@ -103,7 +473,7 @@
     <t xml:space="preserve">Un usuario podrá darse de baja. Al darse de baja podrá elegir si permite que queden contenidos de su autoría, o si por el contrario desea que todos sean eliminados.</t>
   </si>
   <si>
-    <t xml:space="preserve">R05</t>
+    <t xml:space="preserve">R41</t>
   </si>
   <si>
     <t xml:space="preserve">Modificar el perfil</t>
@@ -112,7 +482,7 @@
     <t xml:space="preserve">La aplicación permitirá gestionar el propio perfil de usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">R06</t>
+    <t xml:space="preserve">R42</t>
   </si>
   <si>
     <t xml:space="preserve">Subir avatar</t>
@@ -124,7 +494,7 @@
     <t xml:space="preserve">Opcional</t>
   </si>
   <si>
-    <t xml:space="preserve">R07</t>
+    <t xml:space="preserve">R43</t>
   </si>
   <si>
     <t xml:space="preserve">Ver usuarios</t>
@@ -133,7 +503,7 @@
     <t xml:space="preserve">La aplicación permitirá ver una lista con todos los usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R08</t>
+    <t xml:space="preserve">R44</t>
   </si>
   <si>
     <t xml:space="preserve">Ver perfil de usuario</t>
@@ -142,7 +512,7 @@
     <t xml:space="preserve">La aplicación permitirá visualizar los perfiles de usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">R09</t>
+    <t xml:space="preserve">R45</t>
   </si>
   <si>
     <t xml:space="preserve">Vincular creaciones a un usuario</t>
@@ -151,7 +521,7 @@
     <t xml:space="preserve">La aplicación permitirá vincular todas las creaciones a un usuario, de modo que éstas aparecerán de forma ordenada en su perfil.</t>
   </si>
   <si>
-    <t xml:space="preserve">R10</t>
+    <t xml:space="preserve">R46</t>
   </si>
   <si>
     <t xml:space="preserve">Recuperar contraseña</t>
@@ -160,7 +530,7 @@
     <t xml:space="preserve">La aplicación permitirá recuperar la contraseña de un usuario mediante el envío de un correo electrónico de recuperación.</t>
   </si>
   <si>
-    <t xml:space="preserve">R11</t>
+    <t xml:space="preserve">R47</t>
   </si>
   <si>
     <t xml:space="preserve">Iniciar sesión</t>
@@ -169,7 +539,7 @@
     <t xml:space="preserve">La aplicación permitirá iniciar sesión facilitando el nombre de usuario y contraseña.</t>
   </si>
   <si>
-    <t xml:space="preserve">R12</t>
+    <t xml:space="preserve">R48</t>
   </si>
   <si>
     <t xml:space="preserve">Cerrar sesión</t>
@@ -178,7 +548,7 @@
     <t xml:space="preserve">La aplicación permitirá cerrar sesión.</t>
   </si>
   <si>
-    <t xml:space="preserve">R13</t>
+    <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">Moderación</t>
@@ -187,7 +557,7 @@
     <t xml:space="preserve">La aplicación permitirá a administradores y moderadores editar o eliminar todo o parte del contenido de la aplicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">R14</t>
+    <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">Conceder permisos</t>
@@ -196,7 +566,7 @@
     <t xml:space="preserve">La aplicación permitirá dar permisos de moderador o administrador a otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R15</t>
+    <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Quitar permisos</t>
@@ -205,7 +575,7 @@
     <t xml:space="preserve">La aplicación permitirá quitar permisos de moderador o administrador a otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R16</t>
+    <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">Seguir a un usuario</t>
@@ -214,10 +584,7 @@
     <t xml:space="preserve">La aplicación permitirá seguir a otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
+    <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">Dejar de seguir a un usuario</t>
@@ -226,7 +593,7 @@
     <t xml:space="preserve">La aplicación permitirá dejar de seguir a otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R18</t>
+    <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Ver a quién sigues</t>
@@ -235,7 +602,7 @@
     <t xml:space="preserve">La aplicación permitirá al usuario ver sus propia lista de siguiendo y las de los demás.</t>
   </si>
   <si>
-    <t xml:space="preserve">R19</t>
+    <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">Ver seguidores</t>
@@ -244,7 +611,7 @@
     <t xml:space="preserve">La aplicación permitirá al usuario ver sus propios seguidores y los de los demás.</t>
   </si>
   <si>
-    <t xml:space="preserve">R20</t>
+    <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Ver bandeja de entrada</t>
@@ -253,7 +620,7 @@
     <t xml:space="preserve">La aplicación permitirá acceder a una bandeja de entrada donde recibiremos o enviaremos mensajes privados.</t>
   </si>
   <si>
-    <t xml:space="preserve">R21</t>
+    <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">Enviar mensaje privado</t>
@@ -262,7 +629,7 @@
     <t xml:space="preserve">La aplicación permitirá enviar mensajes privados a otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R22</t>
+    <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Recibir mensaje privado</t>
@@ -271,7 +638,7 @@
     <t xml:space="preserve">La aplicación permitirá recibir mensajes privados de otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R23</t>
+    <t xml:space="preserve">R59</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar mensaje privado</t>
@@ -280,7 +647,7 @@
     <t xml:space="preserve">La aplicación permitirá eliminar los mensajes privados recibidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R24</t>
+    <t xml:space="preserve">R60</t>
   </si>
   <si>
     <t xml:space="preserve">Bloquear un usuario</t>
@@ -289,7 +656,7 @@
     <t xml:space="preserve">La aplicación permitirá bloquear a un usuario, de modo que éste no podrá enviarnos mensajes privados ni veremos su actividad.</t>
   </si>
   <si>
-    <t xml:space="preserve">R25</t>
+    <t xml:space="preserve">R61</t>
   </si>
   <si>
     <t xml:space="preserve">Ver solicitudes</t>
@@ -298,10 +665,7 @@
     <t xml:space="preserve">La aplicación permitirá ver todas las solicitudes que se hayan recibido.</t>
   </si>
   <si>
-    <t xml:space="preserve">Difícil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
+    <t xml:space="preserve">R62</t>
   </si>
   <si>
     <t xml:space="preserve">Ver notificaciones</t>
@@ -310,7 +674,7 @@
     <t xml:space="preserve">La aplicación permitirá ver todas las notificaciones que se hayan recibido.</t>
   </si>
   <si>
-    <t xml:space="preserve">R27</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">Recibir notificación por nuevo seguidor</t>
@@ -319,7 +683,7 @@
     <t xml:space="preserve">La aplicación permitirá recibir notificaciones cuando un usuario haya empezado a seguirnos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R28</t>
+    <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">Recibir notificación por solicitud de unirse a ambientación</t>
@@ -328,7 +692,7 @@
     <t xml:space="preserve">La aplicación permitirá recibir una notificación cuando un usuario solicite que su personaje sea incluido en una ambientación que sea de nuestra autoría.</t>
   </si>
   <si>
-    <t xml:space="preserve">R29</t>
+    <t xml:space="preserve">R65</t>
   </si>
   <si>
     <t xml:space="preserve">Recibir notificación por mensaje privado</t>
@@ -337,7 +701,7 @@
     <t xml:space="preserve">La aplicación permitirá recibir una notificación cuando se reciba un mensaje privado enviado por otro usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">R30</t>
+    <t xml:space="preserve">R66</t>
   </si>
   <si>
     <t xml:space="preserve">Crear personaje</t>
@@ -346,7 +710,7 @@
     <t xml:space="preserve">La aplicación permitirá crear un personaje, y al hacerlo se indicará la privacidad de éste (público, privado, sólo para seguidores...).</t>
   </si>
   <si>
-    <t xml:space="preserve">R31</t>
+    <t xml:space="preserve">R67</t>
   </si>
   <si>
     <t xml:space="preserve">Modificar personaje</t>
@@ -355,7 +719,7 @@
     <t xml:space="preserve">La aplicación permitirá modificar un personaje propio.</t>
   </si>
   <si>
-    <t xml:space="preserve">R32</t>
+    <t xml:space="preserve">R68</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar personaje</t>
@@ -364,7 +728,7 @@
     <t xml:space="preserve">La aplicación permitirá eliminar un personaje propio.</t>
   </si>
   <si>
-    <t xml:space="preserve">R33</t>
+    <t xml:space="preserve">R69</t>
   </si>
   <si>
     <t xml:space="preserve">Ver personajes</t>
@@ -373,106 +737,7 @@
     <t xml:space="preserve">La aplicación permitirá visualizar nuestros propios personajes.</t>
   </si>
   <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá crear una ambientación, y al hacerlo se indicará la privacidad de ésta (pública, privada, sólo para seguidores...).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá modificar una ambientación propia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá eliminar una ambientación propia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver ambientaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá visualizar nuestras propias ambientaciones y aquellas en las que estemos participando.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir personaje a una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá añadir personajes a una ambientación ya creada. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitar adhesión a una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá solicitar la adhesión de uno de nuestros personajes a una ambientación ajena a través de un formulario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceptar solicitud de unirse a una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá aceptar solicitudes de otros usuarios para incluir personajes en una ambientación que sea de nuestra autoría.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechazar solicitud de unirse a una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá rechazar solicitudes de otros usuarios para incluir personajes en una ambientación que sea de nuestra autoría.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar personaje de una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá eliminar personajes de una ambientación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otorgar permisos sobre una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá otorgar a otros usuarios permisos sobre una ambientación que sea de nuestra autoría.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincular personaje y ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá vincular un personaje con una ambientación, de modo que al visualizar un personaje se verá en qué ambientación está, y en la ambientación se verá qué personajes pertenecen a ésta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R45</t>
+    <t xml:space="preserve">R70</t>
   </si>
   <si>
     <t xml:space="preserve">Buscar un usuario</t>
@@ -481,7 +746,7 @@
     <t xml:space="preserve">La aplicación permitirá buscar a otros usuarios con diferentes filtros de búsqueda.</t>
   </si>
   <si>
-    <t xml:space="preserve">R46</t>
+    <t xml:space="preserve">R71</t>
   </si>
   <si>
     <t xml:space="preserve">Buscar un personaje</t>
@@ -490,25 +755,16 @@
     <t xml:space="preserve">La aplicación permitirá buscar a otros personajes con diferentes filtros de búsqueda.</t>
   </si>
   <si>
-    <t xml:space="preserve">R47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar una ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá buscar ambientaciones con diferentes filtros de búsqueda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R48</t>
+    <t xml:space="preserve">R72</t>
   </si>
   <si>
     <t xml:space="preserve">Publicar un comentario</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación permitirá publicar comentarios publicaciones o creaciones (si éstas lo permiten).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R49</t>
+    <t xml:space="preserve">La aplicación permitirá publicar comentarios en publicaciones o personajes (si éstos lo permiten).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
   </si>
   <si>
     <t xml:space="preserve">Editar comentario</t>
@@ -517,7 +773,7 @@
     <t xml:space="preserve">La aplicación permitirá modificar los propios comentarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R50</t>
+    <t xml:space="preserve">R74</t>
   </si>
   <si>
     <t xml:space="preserve">Borrar comentario</t>
@@ -526,7 +782,7 @@
     <t xml:space="preserve">La aplicación permitirá borrar los propios comentarios durante los primeros quince minutos tras su publicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">R51</t>
+    <t xml:space="preserve">R75</t>
   </si>
   <si>
     <t xml:space="preserve">Crear publicaciones</t>
@@ -535,7 +791,7 @@
     <t xml:space="preserve">La aplicación permitirá crear publicaciones, que serán propias de cada usuario y se visualizarán en los perfiles de éstos. Además también se podrá definir su privacidad (pública, privada, sólo para seguidores…).</t>
   </si>
   <si>
-    <t xml:space="preserve">R52</t>
+    <t xml:space="preserve">R76</t>
   </si>
   <si>
     <t xml:space="preserve">Editar publicaciones</t>
@@ -544,7 +800,7 @@
     <t xml:space="preserve">La aplicación permitirá modificar las propias publicaciones.</t>
   </si>
   <si>
-    <t xml:space="preserve">R53</t>
+    <t xml:space="preserve">R77</t>
   </si>
   <si>
     <t xml:space="preserve">Borrar publicaciones</t>
@@ -553,7 +809,7 @@
     <t xml:space="preserve">La aplicación permitirá borrar las propias publicaciones.</t>
   </si>
   <si>
-    <t xml:space="preserve">R54</t>
+    <t xml:space="preserve">R78</t>
   </si>
   <si>
     <t xml:space="preserve">Ver publicaciones</t>
@@ -562,43 +818,7 @@
     <t xml:space="preserve">La aplicación permitirá ver las publicaciones de un usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">R55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicar entradas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a otros usuarios publicar entradas útiles para el resto de usuarios en dicha sección. Previamente deberán pasar por moderación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar entradas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá editar las propias entradas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar entradas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá eliminar las propias entradas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver entradas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá ver todas las entradas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R59</t>
+    <t xml:space="preserve">R79</t>
   </si>
   <si>
     <t xml:space="preserve">Crear un árbol genealógico</t>
@@ -607,7 +827,7 @@
     <t xml:space="preserve">La aplicación permitirá a los usuarios crear árboles genealógicos para sus personajes y vincularlos con otros personajes ya creados.</t>
   </si>
   <si>
-    <t xml:space="preserve">R60</t>
+    <t xml:space="preserve">R80</t>
   </si>
   <si>
     <t xml:space="preserve">Editar un árbol genealógico</t>
@@ -616,7 +836,7 @@
     <t xml:space="preserve">La aplicación permitirá a los usuarios editar sus propios árboles genealógicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R61</t>
+    <t xml:space="preserve">R81</t>
   </si>
   <si>
     <t xml:space="preserve">Solicitar adhesión a un árbol genealógico</t>
@@ -625,7 +845,7 @@
     <t xml:space="preserve">La aplicación permitirá solicitar la adhesión a un árbol genealógico ajeno.</t>
   </si>
   <si>
-    <t xml:space="preserve">R62</t>
+    <t xml:space="preserve">R82</t>
   </si>
   <si>
     <t xml:space="preserve">Notificación de solicitud de árbol genealógico</t>
@@ -634,7 +854,7 @@
     <t xml:space="preserve">La aplicación nos notificará cuando se solicite añadir un personaje a un árbol genealógico.</t>
   </si>
   <si>
-    <t xml:space="preserve">R63</t>
+    <t xml:space="preserve">R83</t>
   </si>
   <si>
     <t xml:space="preserve">Aceptar solicitud de árbol genealógico</t>
@@ -643,7 +863,7 @@
     <t xml:space="preserve">La aplicación permitirá aceptar solicitudes referentes a los árboles genealógicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R64</t>
+    <t xml:space="preserve">R84</t>
   </si>
   <si>
     <t xml:space="preserve">Rechazar solicitud de árbol genealógico</t>
@@ -652,7 +872,7 @@
     <t xml:space="preserve">La aplicación permitirá rechazar solicitudes referentes a los árboles genealógicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R65</t>
+    <t xml:space="preserve">R85</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar un árbol genealógico</t>
@@ -661,7 +881,7 @@
     <t xml:space="preserve">La aplicación permitirá a los usuarios borrar sus propios árboles genealógicos. Si hay otros personajes implicados sólo podrá borrarlos el creador.</t>
   </si>
   <si>
-    <t xml:space="preserve">R66</t>
+    <t xml:space="preserve">R86</t>
   </si>
   <si>
     <t xml:space="preserve">Vincular árbol genealógico y personajes</t>
@@ -670,7 +890,7 @@
     <t xml:space="preserve">La aplicación permitirá vincular un árbol genealógico con un personaje o personajes, de modo que se podrán visualizar desde la información de éstos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R67</t>
+    <t xml:space="preserve">R87</t>
   </si>
   <si>
     <t xml:space="preserve">Generar árbol genealógico visual</t>
@@ -679,43 +899,7 @@
     <t xml:space="preserve">La aplicación permitirá generar un árbol genealógico visual y exportarlo en formato HTML.</t>
   </si>
   <si>
-    <t xml:space="preserve">R68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicar un anuncio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a un usuario publicar un anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar un anuncio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a un usuario editar su propio anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar un anuncio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a un usuario eliminar su propio anuncio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver anuncios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá ver todos los anuncios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R72</t>
+    <t xml:space="preserve">R88</t>
   </si>
   <si>
     <t xml:space="preserve">Generar personaje aleatorio</t>
@@ -724,7 +908,7 @@
     <t xml:space="preserve">La aplicación permitirá generar un personaje de forma aleatoria.</t>
   </si>
   <si>
-    <t xml:space="preserve">R73</t>
+    <t xml:space="preserve">R89</t>
   </si>
   <si>
     <t xml:space="preserve">Elegir idioma</t>
@@ -733,7 +917,7 @@
     <t xml:space="preserve">La aplicación estará disponible en inglés y en español.</t>
   </si>
   <si>
-    <t xml:space="preserve">R74</t>
+    <t xml:space="preserve">R90</t>
   </si>
   <si>
     <t xml:space="preserve">Sugerir traducción</t>
@@ -742,13 +926,136 @@
     <t xml:space="preserve">La aplicación permitirá enviar sugerencias de traducciones, o correcciones de traducciones ya existentes a través de un formulario.</t>
   </si>
   <si>
-    <t xml:space="preserve">R75</t>
+    <t xml:space="preserve">R91</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de Amazon S3</t>
   </si>
   <si>
     <t xml:space="preserve">Se investigará el uso de Amazon S3 para usarla para subir archivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v23</t>
   </si>
 </sst>
 </file>
@@ -832,7 +1139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -873,6 +1180,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -890,21 +1201,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I93" activeCellId="0" sqref="I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="53.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="5" width="10.53"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="13.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -967,13 +1278,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>14</v>
@@ -981,36 +1292,36 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>11</v>
@@ -1019,21 +1330,21 @@
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>11</v>
@@ -1048,38 +1359,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -1088,21 +1399,21 @@
         <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>11</v>
@@ -1117,15 +1428,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>11</v>
@@ -1134,44 +1445,44 @@
         <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>11</v>
@@ -1180,21 +1491,21 @@
         <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>11</v>
@@ -1206,30 +1517,30 @@
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,16 +1554,16 @@
         <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,76 +1577,76 @@
         <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>12</v>
@@ -1344,142 +1655,142 @@
         <v>13</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>14</v>
@@ -1487,22 +1798,22 @@
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>14</v>
@@ -1510,105 +1821,105 @@
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>11</v>
@@ -1617,21 +1928,21 @@
         <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>11</v>
@@ -1640,21 +1951,21 @@
         <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>11</v>
@@ -1663,21 +1974,21 @@
         <v>12</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>11</v>
@@ -1686,21 +1997,21 @@
         <v>12</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>11</v>
@@ -1709,21 +2020,21 @@
         <v>12</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>11</v>
@@ -1732,21 +2043,21 @@
         <v>12</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>11</v>
@@ -1755,53 +2066,56 @@
         <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>14</v>
@@ -1809,160 +2123,160 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="C40" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="D40" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="C41" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="D41" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="C42" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="D42" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="C43" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="D43" s="9" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="B44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D44" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="D45" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>14</v>
@@ -1970,22 +2284,22 @@
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="B47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D47" s="9" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>14</v>
@@ -1993,694 +2307,1404 @@
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="B48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="D48" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="B49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="D49" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="B50" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D50" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="B53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D53" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="B54" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="D54" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="B55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="D55" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C56" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="B56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="D56" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="D57" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="B67" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="D67" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="B68" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="D68" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D76" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D112" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E76" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E112" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F76" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F112" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G76" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G112" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -1203,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I93" activeCellId="0" sqref="I93"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="203.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="147.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>103</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="79.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="171.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>152</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>155</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>164</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>167</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>170</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>182</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>185</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>188</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>191</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>194</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>200</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>206</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>209</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>212</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>215</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>227</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>230</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>233</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>239</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>242</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>254</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>257</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>260</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>263</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>266</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>269</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>272</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>275</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>278</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>281</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>287</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>290</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>293</v>
       </c>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="317">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -434,15 +434,12 @@
     <t xml:space="preserve">Registro de usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación permitirá el registro de usuarios, teniendo que facilitar un nombre de usuario único, una dirección de correo válida y única, y una contraseña.</t>
+    <t xml:space="preserve">La aplicación permitirá el registro de usuarios.</t>
   </si>
   <si>
     <t xml:space="preserve">Funcional</t>
   </si>
   <si>
-    <t xml:space="preserve">Requisitos funcionales</t>
-  </si>
-  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
@@ -938,124 +935,76 @@
     <t xml:space="preserve">R92</t>
   </si>
   <si>
+    <t xml:space="preserve">Info. Registro de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para efectuar el registro de usuario, se almacenará como mínimo un nombre de usuario único e irrepetible, una dirección de correo válida e irrepetible, y una contraseña.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Información</t>
   </si>
   <si>
-    <t xml:space="preserve">Almacenamiento</t>
-  </si>
-  <si>
     <t xml:space="preserve">R93</t>
   </si>
   <si>
-    <t xml:space="preserve">v5</t>
+    <t xml:space="preserve">Info. Datos de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionalmente, al completar el perfil, se almacenará de un usuario, cómo mínimo: aficiones, temática favorita, plataformas, web, avatar…</t>
   </si>
   <si>
     <t xml:space="preserve">R94</t>
   </si>
   <si>
-    <t xml:space="preserve">v6</t>
+    <t xml:space="preserve">Info. Mensajes Privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el emisor, el receptor, el contenido y la fecha.</t>
   </si>
   <si>
     <t xml:space="preserve">R95</t>
   </si>
   <si>
-    <t xml:space="preserve">v7</t>
+    <t xml:space="preserve">Info. Personajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará, como mínimo: nombre, edad, historia y otros datos.</t>
   </si>
   <si>
     <t xml:space="preserve">R96</t>
   </si>
   <si>
-    <t xml:space="preserve">v8</t>
+    <t xml:space="preserve">Info. Comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el nombre del emisor, si se trata de un comentario a una publicación o personaje, el id de dicha publicación o personaje, el contenido, la fecha y comentario al que responde (si lo hubiera).</t>
   </si>
   <si>
     <t xml:space="preserve">R97</t>
   </si>
   <si>
-    <t xml:space="preserve">v9</t>
+    <t xml:space="preserve">Info. Publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el autor, el contenido y la fecha.</t>
   </si>
   <si>
     <t xml:space="preserve">R98</t>
   </si>
   <si>
-    <t xml:space="preserve">v10</t>
+    <t xml:space="preserve">Info. Árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará, como mínimo: el personaje para el que fue creado, y las relaciones personaje-familiar.</t>
   </si>
   <si>
     <t xml:space="preserve">R99</t>
   </si>
   <si>
-    <t xml:space="preserve">v11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v23</t>
+    <t xml:space="preserve">Info. Sugerencias de traducción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará, como mínimo: el nombre del emisor, el contenido y  la fecha.</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1088,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1180,10 +1129,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1201,21 +1146,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="52.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="5" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,7 +2017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -2094,45 +2039,42 @@
       <c r="G38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="1" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="D39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>127</v>
@@ -2144,15 +2086,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>11</v>
@@ -2169,13 +2111,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>11</v>
@@ -2192,16 +2134,16 @@
     </row>
     <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>127</v>
@@ -2215,13 +2157,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>11</v>
@@ -2238,82 +2180,82 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>11</v>
@@ -2330,85 +2272,85 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D52" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>127</v>
@@ -2422,16 +2364,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="D53" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>127</v>
@@ -2443,18 +2385,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="D54" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>127</v>
@@ -2466,133 +2408,133 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D60" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>127</v>
@@ -2606,39 +2548,39 @@
     </row>
     <row r="61" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D62" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>127</v>
@@ -2650,18 +2592,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D63" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>127</v>
@@ -2673,18 +2615,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="D64" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>127</v>
@@ -2696,18 +2638,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D65" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>127</v>
@@ -2719,18 +2661,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D66" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>127</v>
@@ -2742,15 +2684,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>11</v>
@@ -2767,13 +2709,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>11</v>
@@ -2790,13 +2732,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>11</v>
@@ -2813,85 +2755,85 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D73" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>127</v>
@@ -2905,16 +2847,16 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D74" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>127</v>
@@ -2926,18 +2868,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D75" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>127</v>
@@ -2949,18 +2891,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="D76" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>127</v>
@@ -2974,16 +2916,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="D77" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>127</v>
@@ -2997,16 +2939,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D78" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>127</v>
@@ -3020,16 +2962,16 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D79" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>127</v>
@@ -3041,18 +2983,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="D80" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>127</v>
@@ -3064,18 +3006,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D81" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>127</v>
@@ -3087,18 +3029,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D82" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>127</v>
@@ -3110,18 +3052,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D83" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>127</v>
@@ -3133,18 +3075,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="D84" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>127</v>
@@ -3156,18 +3098,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="D85" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>127</v>
@@ -3179,18 +3121,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="D86" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>127</v>
@@ -3202,18 +3144,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="D87" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>127</v>
@@ -3225,18 +3167,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D88" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>127</v>
@@ -3248,18 +3190,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="D89" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>127</v>
@@ -3273,13 +3215,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>11</v>
@@ -3294,15 +3236,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>11</v>
@@ -3317,38 +3259,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="D92" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="C93" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="D93" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>13</v>
@@ -3356,355 +3304,190 @@
       <c r="G93" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="D94" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>297</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>303</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D112" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D100" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E112" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E100" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F112" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F100" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G112" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G100" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="311">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">R22</t>
   </si>
   <si>
-    <t xml:space="preserve">PostgreSQL </t>
+    <t xml:space="preserve">PostgreSQL</t>
   </si>
   <si>
     <t xml:space="preserve">Usar PostgreSQL versión 9.6 o superior.</t>
@@ -656,349 +656,331 @@
     <t xml:space="preserve">R61</t>
   </si>
   <si>
-    <t xml:space="preserve">Ver solicitudes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá ver todas las solicitudes que se hayan recibido.</t>
+    <t xml:space="preserve">Ver notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá ver todas las notificaciones que se hayan recibido.</t>
   </si>
   <si>
     <t xml:space="preserve">R62</t>
   </si>
   <si>
-    <t xml:space="preserve">Ver notificaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá ver todas las notificaciones que se hayan recibido.</t>
+    <t xml:space="preserve">Recibir notificación por nuevo seguidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá recibir notificaciones cuando un usuario haya empezado a seguirnos.</t>
   </si>
   <si>
     <t xml:space="preserve">R63</t>
   </si>
   <si>
-    <t xml:space="preserve">Recibir notificación por nuevo seguidor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá recibir notificaciones cuando un usuario haya empezado a seguirnos.</t>
+    <t xml:space="preserve">Recibir notificación por mensaje privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá recibir una notificación cuando se reciba un mensaje privado enviado por otro usuario.</t>
   </si>
   <si>
     <t xml:space="preserve">R64</t>
   </si>
   <si>
-    <t xml:space="preserve">Recibir notificación por solicitud de unirse a ambientación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá recibir una notificación cuando un usuario solicite que su personaje sea incluido en una ambientación que sea de nuestra autoría.</t>
+    <t xml:space="preserve">Crear personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá crear un personaje, y al hacerlo se indicará la privacidad de éste (público, privado, sólo para seguidores...).</t>
   </si>
   <si>
     <t xml:space="preserve">R65</t>
   </si>
   <si>
-    <t xml:space="preserve">Recibir notificación por mensaje privado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá recibir una notificación cuando se reciba un mensaje privado enviado por otro usuario.</t>
+    <t xml:space="preserve">Modificar personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá modificar un personaje propio.</t>
   </si>
   <si>
     <t xml:space="preserve">R66</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá crear un personaje, y al hacerlo se indicará la privacidad de éste (público, privado, sólo para seguidores...).</t>
+    <t xml:space="preserve">Eliminar personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá eliminar un personaje propio.</t>
   </si>
   <si>
     <t xml:space="preserve">R67</t>
   </si>
   <si>
-    <t xml:space="preserve">Modificar personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá modificar un personaje propio.</t>
+    <t xml:space="preserve">Ver personajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá visualizar nuestros propios personajes.</t>
   </si>
   <si>
     <t xml:space="preserve">R68</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminar personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá eliminar un personaje propio.</t>
+    <t xml:space="preserve">Buscar un usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá buscar a otros usuarios con diferentes filtros de búsqueda.</t>
   </si>
   <si>
     <t xml:space="preserve">R69</t>
   </si>
   <si>
-    <t xml:space="preserve">Ver personajes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá visualizar nuestros propios personajes.</t>
+    <t xml:space="preserve">Buscar un personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá buscar a otros personajes con diferentes filtros de búsqueda.</t>
   </si>
   <si>
     <t xml:space="preserve">R70</t>
   </si>
   <si>
-    <t xml:space="preserve">Buscar un usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá buscar a otros usuarios con diferentes filtros de búsqueda.</t>
+    <t xml:space="preserve">Publicar un comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá publicar comentarios en publicaciones o personajes (si éstos lo permiten).</t>
   </si>
   <si>
     <t xml:space="preserve">R71</t>
   </si>
   <si>
-    <t xml:space="preserve">Buscar un personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá buscar a otros personajes con diferentes filtros de búsqueda.</t>
+    <t xml:space="preserve">Editar comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá modificar los propios comentarios.</t>
   </si>
   <si>
     <t xml:space="preserve">R72</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicar un comentario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá publicar comentarios en publicaciones o personajes (si éstos lo permiten).</t>
+    <t xml:space="preserve">Borrar comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá borrar los propios comentarios durante los primeros quince minutos tras su publicación.</t>
   </si>
   <si>
     <t xml:space="preserve">R73</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar comentario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá modificar los propios comentarios.</t>
+    <t xml:space="preserve">Crear publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá crear publicaciones, que serán propias de cada usuario y se visualizarán en los perfiles de éstos. Además también se podrá definir su privacidad (pública, privada, sólo para seguidores…).</t>
   </si>
   <si>
     <t xml:space="preserve">R74</t>
   </si>
   <si>
-    <t xml:space="preserve">Borrar comentario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá borrar los propios comentarios durante los primeros quince minutos tras su publicación.</t>
+    <t xml:space="preserve">Editar publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá modificar las propias publicaciones.</t>
   </si>
   <si>
     <t xml:space="preserve">R75</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear publicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá crear publicaciones, que serán propias de cada usuario y se visualizarán en los perfiles de éstos. Además también se podrá definir su privacidad (pública, privada, sólo para seguidores…).</t>
+    <t xml:space="preserve">Borrar publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá borrar las propias publicaciones.</t>
   </si>
   <si>
     <t xml:space="preserve">R76</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar publicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá modificar las propias publicaciones.</t>
+    <t xml:space="preserve">Ver publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá ver las publicaciones de un usuario.</t>
   </si>
   <si>
     <t xml:space="preserve">R77</t>
   </si>
   <si>
-    <t xml:space="preserve">Borrar publicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá borrar las propias publicaciones.</t>
+    <t xml:space="preserve">Crear un árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá a los usuarios crear árboles genealógicos para sus personajes y vincularlos con otros personajes ya creados.</t>
   </si>
   <si>
     <t xml:space="preserve">R78</t>
   </si>
   <si>
-    <t xml:space="preserve">Ver publicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá ver las publicaciones de un usuario.</t>
+    <t xml:space="preserve">Editar un árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá a los usuarios editar sus propios árboles genealógicos.</t>
   </si>
   <si>
     <t xml:space="preserve">R79</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear un árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a los usuarios crear árboles genealógicos para sus personajes y vincularlos con otros personajes ya creados.</t>
+    <t xml:space="preserve">Solicitar adhesión a un árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá solicitar la adhesión a un árbol genealógico ajeno.</t>
   </si>
   <si>
     <t xml:space="preserve">R80</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar un árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a los usuarios editar sus propios árboles genealógicos.</t>
+    <t xml:space="preserve">Notificación de solicitud de árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación nos notificará cuando se solicite añadir un personaje a un árbol genealógico.</t>
   </si>
   <si>
     <t xml:space="preserve">R81</t>
   </si>
   <si>
-    <t xml:space="preserve">Solicitar adhesión a un árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá solicitar la adhesión a un árbol genealógico ajeno.</t>
+    <t xml:space="preserve">Aceptar solicitud de árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá aceptar solicitudes referentes a los árboles genealógicos.</t>
   </si>
   <si>
     <t xml:space="preserve">R82</t>
   </si>
   <si>
-    <t xml:space="preserve">Notificación de solicitud de árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación nos notificará cuando se solicite añadir un personaje a un árbol genealógico.</t>
+    <t xml:space="preserve">Rechazar solicitud de árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá rechazar solicitudes referentes a los árboles genealógicos.</t>
   </si>
   <si>
     <t xml:space="preserve">R83</t>
   </si>
   <si>
-    <t xml:space="preserve">Aceptar solicitud de árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá aceptar solicitudes referentes a los árboles genealógicos.</t>
+    <t xml:space="preserve">Eliminar un árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá a los usuarios borrar sus propios árboles genealógicos. Si hay otros personajes implicados sólo podrá borrarlos el creador.</t>
   </si>
   <si>
     <t xml:space="preserve">R84</t>
   </si>
   <si>
-    <t xml:space="preserve">Rechazar solicitud de árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá rechazar solicitudes referentes a los árboles genealógicos.</t>
+    <t xml:space="preserve">Vincular árbol genealógico y personajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá vincular un árbol genealógico con un personaje o personajes, de modo que se podrán visualizar desde la información de éstos.</t>
   </si>
   <si>
     <t xml:space="preserve">R85</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminar un árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá a los usuarios borrar sus propios árboles genealógicos. Si hay otros personajes implicados sólo podrá borrarlos el creador.</t>
+    <t xml:space="preserve">Generar árbol genealógico visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá generar un árbol genealógico visual y exportarlo en formato HTML.</t>
   </si>
   <si>
     <t xml:space="preserve">R86</t>
   </si>
   <si>
-    <t xml:space="preserve">Vincular árbol genealógico y personajes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá vincular un árbol genealógico con un personaje o personajes, de modo que se podrán visualizar desde la información de éstos.</t>
+    <t xml:space="preserve">Generar personaje aleatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá generar un personaje de forma aleatoria.</t>
   </si>
   <si>
     <t xml:space="preserve">R87</t>
   </si>
   <si>
-    <t xml:space="preserve">Generar árbol genealógico visual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá generar un árbol genealógico visual y exportarlo en formato HTML.</t>
+    <t xml:space="preserve">Elegir idioma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación estará disponible en inglés y en español.</t>
   </si>
   <si>
     <t xml:space="preserve">R88</t>
   </si>
   <si>
-    <t xml:space="preserve">Generar personaje aleatorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá generar un personaje de forma aleatoria.</t>
+    <t xml:space="preserve">Sugerir traducción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá enviar sugerencias de traducciones, o correcciones de traducciones ya existentes a través de un formulario.</t>
   </si>
   <si>
     <t xml:space="preserve">R89</t>
   </si>
   <si>
-    <t xml:space="preserve">Elegir idioma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación estará disponible en inglés y en español.</t>
+    <t xml:space="preserve">Uso de Amazon S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se investigará el uso de Amazon S3 para usarla para subir archivos.</t>
   </si>
   <si>
     <t xml:space="preserve">R90</t>
   </si>
   <si>
-    <t xml:space="preserve">Sugerir traducción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá enviar sugerencias de traducciones, o correcciones de traducciones ya existentes a través de un formulario.</t>
+    <t xml:space="preserve">Info. Registro de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para efectuar el registro de usuario, se almacenará como mínimo un nombre de usuario único e irrepetible, una dirección de correo válida e irrepetible, y una contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información</t>
   </si>
   <si>
     <t xml:space="preserve">R91</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de Amazon S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se investigará el uso de Amazon S3 para usarla para subir archivos.</t>
+    <t xml:space="preserve">Info. Datos de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionalmente, al completar el perfil, se almacenará de un usuario, cómo mínimo: aficiones, temática favorita, plataformas, web, avatar…</t>
   </si>
   <si>
     <t xml:space="preserve">R92</t>
   </si>
   <si>
-    <t xml:space="preserve">Info. Registro de Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para efectuar el registro de usuario, se almacenará como mínimo un nombre de usuario único e irrepetible, una dirección de correo válida e irrepetible, y una contraseña.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
+    <t xml:space="preserve">Info. Mensajes Privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el emisor, el receptor, el contenido y la fecha.</t>
   </si>
   <si>
     <t xml:space="preserve">R93</t>
   </si>
   <si>
-    <t xml:space="preserve">Info. Datos de Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionalmente, al completar el perfil, se almacenará de un usuario, cómo mínimo: aficiones, temática favorita, plataformas, web, avatar…</t>
+    <t xml:space="preserve">Info. Personajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará, como mínimo: nombre, edad, historia y otros datos.</t>
   </si>
   <si>
     <t xml:space="preserve">R94</t>
   </si>
   <si>
-    <t xml:space="preserve">Info. Mensajes Privados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se almacenará el emisor, el receptor, el contenido y la fecha.</t>
+    <t xml:space="preserve">Info. Comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el nombre del emisor, si se trata de un comentario a una publicación o personaje, el id de dicha publicación o personaje, el contenido, la fecha y comentario al que responde (si lo hubiera).</t>
   </si>
   <si>
     <t xml:space="preserve">R95</t>
   </si>
   <si>
-    <t xml:space="preserve">Info. Personajes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se almacenará, como mínimo: nombre, edad, historia y otros datos.</t>
+    <t xml:space="preserve">Info. Publicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el autor, el contenido y la fecha.</t>
   </si>
   <si>
     <t xml:space="preserve">R96</t>
   </si>
   <si>
-    <t xml:space="preserve">Info. Comentarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se almacenará el nombre del emisor, si se trata de un comentario a una publicación o personaje, el id de dicha publicación o personaje, el contenido, la fecha y comentario al que responde (si lo hubiera).</t>
+    <t xml:space="preserve">Info. Árbol genealógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará, como mínimo: el personaje para el que fue creado, y las relaciones personaje-familiar.</t>
   </si>
   <si>
     <t xml:space="preserve">R97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info. Publicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se almacenará el autor, el contenido y la fecha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info. Árbol genealógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se almacenará, como mínimo: el personaje para el que fue creado, y las relaciones personaje-familiar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R99</t>
   </si>
   <si>
     <t xml:space="preserve">Info. Sugerencias de traducción</t>
@@ -1146,10 +1128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2612,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,56 +2624,56 @@
       <c r="A65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -2711,10 +2693,10 @@
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -2730,7 +2712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>220</v>
       </c>
@@ -2747,13 +2729,13 @@
         <v>127</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>223</v>
       </c>
@@ -2770,7 +2752,7 @@
         <v>127</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>14</v>
@@ -2787,7 +2769,7 @@
         <v>228</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>127</v>
@@ -2796,10 +2778,10 @@
         <v>30</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>229</v>
       </c>
@@ -2810,7 +2792,7 @@
         <v>231</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>127</v>
@@ -2819,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,13 +2821,13 @@
         <v>127</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>235</v>
       </c>
@@ -2868,7 +2850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>238</v>
       </c>
@@ -2885,13 +2867,13 @@
         <v>127</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>241</v>
       </c>
@@ -2937,7 +2919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>247</v>
       </c>
@@ -2954,13 +2936,13 @@
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>250</v>
       </c>
@@ -2977,13 +2959,13 @@
         <v>127</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -3092,13 +3074,13 @@
         <v>127</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>268</v>
       </c>
@@ -3115,13 +3097,13 @@
         <v>127</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>271</v>
       </c>
@@ -3132,19 +3114,19 @@
         <v>273</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>274</v>
       </c>
@@ -3155,19 +3137,19 @@
         <v>276</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -3178,7 +3160,7 @@
         <v>279</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>127</v>
@@ -3190,7 +3172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -3201,19 +3183,19 @@
         <v>282</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>283</v>
       </c>
@@ -3224,16 +3206,16 @@
         <v>285</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,60 +3225,60 @@
       <c r="B91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="F92" s="9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>13</v>
@@ -3305,7 +3287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>296</v>
       </c>
@@ -3319,7 +3301,7 @@
         <v>131</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>13</v>
@@ -3328,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -3342,16 +3324,16 @@
         <v>131</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>302</v>
       </c>
@@ -3365,16 +3347,16 @@
         <v>131</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>305</v>
       </c>
@@ -3388,16 +3370,16 @@
         <v>131</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>308</v>
       </c>
@@ -3411,76 +3393,30 @@
         <v>131</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D100" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D98" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E100" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E98" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F100" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F98" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G100" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G98" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
